--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H2">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.332722</v>
+        <v>0.8938233333333333</v>
       </c>
       <c r="N2">
-        <v>0.998166</v>
+        <v>2.68147</v>
       </c>
       <c r="O2">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="P2">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="Q2">
-        <v>1.378023838481333</v>
+        <v>4.505026317024444</v>
       </c>
       <c r="R2">
-        <v>12.402214546332</v>
+        <v>40.54523685322</v>
       </c>
       <c r="S2">
-        <v>0.004996045684205876</v>
+        <v>0.02161314225503734</v>
       </c>
       <c r="T2">
-        <v>0.004996045684205877</v>
+        <v>0.02161314225503735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H3">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I3">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J3">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.134963</v>
       </c>
       <c r="O3">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="P3">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="Q3">
-        <v>2.947435504991778</v>
+        <v>3.586862616726444</v>
       </c>
       <c r="R3">
-        <v>26.526919544926</v>
+        <v>32.281763550538</v>
       </c>
       <c r="S3">
-        <v>0.01068597075244922</v>
+        <v>0.01720819514230676</v>
       </c>
       <c r="T3">
-        <v>0.01068597075244922</v>
+        <v>0.01720819514230676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H4">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I4">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J4">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.600566</v>
+        <v>1.431390666666666</v>
       </c>
       <c r="N4">
-        <v>4.801698</v>
+        <v>4.294172</v>
       </c>
       <c r="O4">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="P4">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="Q4">
-        <v>6.629011917044</v>
+        <v>7.214459930496887</v>
       </c>
       <c r="R4">
-        <v>59.661107253396</v>
+        <v>64.93013937447199</v>
       </c>
       <c r="S4">
-        <v>0.02403358015576566</v>
+        <v>0.03461181751188647</v>
       </c>
       <c r="T4">
-        <v>0.02403358015576567</v>
+        <v>0.03461181751188647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H5">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I5">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J5">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7372710000000001</v>
+        <v>0.2887516666666667</v>
       </c>
       <c r="N5">
-        <v>2.211813</v>
+        <v>0.866255</v>
       </c>
       <c r="O5">
-        <v>0.07759238264642075</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="P5">
-        <v>0.07759238264642074</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="Q5">
-        <v>3.053531216514001</v>
+        <v>1.455359027792222</v>
       </c>
       <c r="R5">
-        <v>27.48178094862601</v>
+        <v>13.09823125013</v>
       </c>
       <c r="S5">
-        <v>0.01107062231424478</v>
+        <v>0.006982174905606767</v>
       </c>
       <c r="T5">
-        <v>0.01107062231424478</v>
+        <v>0.006982174905606767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H6">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I6">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J6">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.984489</v>
+        <v>2.397868333333333</v>
       </c>
       <c r="N6">
-        <v>5.953467000000001</v>
+        <v>7.193605</v>
       </c>
       <c r="O6">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="P6">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="Q6">
-        <v>8.219093264659334</v>
+        <v>12.08567682624778</v>
       </c>
       <c r="R6">
-        <v>73.97183938193402</v>
+        <v>108.77109143623</v>
       </c>
       <c r="S6">
-        <v>0.02979844345671172</v>
+        <v>0.05798178170613429</v>
       </c>
       <c r="T6">
-        <v>0.02979844345671172</v>
+        <v>0.05798178170613429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H7">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I7">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J7">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.135145333333333</v>
+        <v>1.053984333333333</v>
       </c>
       <c r="N7">
-        <v>12.405436</v>
+        <v>3.161953</v>
       </c>
       <c r="O7">
-        <v>0.4351938147608695</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="P7">
-        <v>0.4351938147608694</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="Q7">
-        <v>17.12639634565244</v>
+        <v>5.312265838586445</v>
       </c>
       <c r="R7">
-        <v>154.137567110872</v>
+        <v>47.810392547278</v>
       </c>
       <c r="S7">
-        <v>0.06209200171964604</v>
+        <v>0.025485923762989</v>
       </c>
       <c r="T7">
-        <v>0.06209200171964604</v>
+        <v>0.025485923762989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>18.144572</v>
       </c>
       <c r="I8">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J8">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.332722</v>
+        <v>0.8938233333333333</v>
       </c>
       <c r="N8">
-        <v>0.998166</v>
+        <v>2.68147</v>
       </c>
       <c r="O8">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="P8">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="Q8">
-        <v>2.012366094994667</v>
+        <v>5.406013942315555</v>
       </c>
       <c r="R8">
-        <v>18.111294854952</v>
+        <v>48.65412548084</v>
       </c>
       <c r="S8">
-        <v>0.007295862860413446</v>
+        <v>0.02593568608610358</v>
       </c>
       <c r="T8">
-        <v>0.007295862860413446</v>
+        <v>0.02593568608610359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>18.144572</v>
       </c>
       <c r="I9">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J9">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.134963</v>
       </c>
       <c r="O9">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="P9">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="Q9">
         <v>4.304221096759555</v>
@@ -1013,10 +1013,10 @@
         <v>38.737989870836</v>
       </c>
       <c r="S9">
-        <v>0.01560501686097991</v>
+        <v>0.02064976679710978</v>
       </c>
       <c r="T9">
-        <v>0.01560501686097991</v>
+        <v>0.02064976679710978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>18.144572</v>
       </c>
       <c r="I10">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J10">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.600566</v>
+        <v>1.431390666666666</v>
       </c>
       <c r="N10">
-        <v>4.801698</v>
+        <v>4.294172</v>
       </c>
       <c r="O10">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="P10">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="Q10">
-        <v>9.680528342583999</v>
+        <v>8.657323670487109</v>
       </c>
       <c r="R10">
-        <v>87.12475508325601</v>
+        <v>77.91591303438399</v>
       </c>
       <c r="S10">
-        <v>0.03509689781571555</v>
+        <v>0.04153404550180893</v>
       </c>
       <c r="T10">
-        <v>0.03509689781571555</v>
+        <v>0.04153404550180893</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>18.144572</v>
       </c>
       <c r="I11">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J11">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7372710000000001</v>
+        <v>0.2887516666666667</v>
       </c>
       <c r="N11">
-        <v>2.211813</v>
+        <v>0.866255</v>
       </c>
       <c r="O11">
-        <v>0.07759238264642075</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="P11">
-        <v>0.07759238264642074</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="Q11">
-        <v>4.459155581004</v>
+        <v>1.746425135317778</v>
       </c>
       <c r="R11">
-        <v>40.132400229036</v>
+        <v>15.71782621786</v>
       </c>
       <c r="S11">
-        <v>0.01616673411123966</v>
+        <v>0.008378582550063086</v>
       </c>
       <c r="T11">
-        <v>0.01616673411123966</v>
+        <v>0.008378582550063084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>18.144572</v>
       </c>
       <c r="I12">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J12">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.984489</v>
+        <v>2.397868333333333</v>
       </c>
       <c r="N12">
-        <v>5.953467000000001</v>
+        <v>7.193605</v>
       </c>
       <c r="O12">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="P12">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="Q12">
-        <v>12.00256784790267</v>
+        <v>14.50276487356222</v>
       </c>
       <c r="R12">
-        <v>108.023110631124</v>
+        <v>130.52488386206</v>
       </c>
       <c r="S12">
-        <v>0.04351548617764687</v>
+        <v>0.06957791103664228</v>
       </c>
       <c r="T12">
-        <v>0.04351548617764687</v>
+        <v>0.06957791103664228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>18.144572</v>
       </c>
       <c r="I13">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J13">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.135145333333333</v>
+        <v>1.053984333333333</v>
       </c>
       <c r="N13">
-        <v>12.405436</v>
+        <v>3.161953</v>
       </c>
       <c r="O13">
-        <v>0.4351938147608695</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="P13">
-        <v>0.4351938147608694</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="Q13">
-        <v>25.01014741037689</v>
+        <v>6.374698207679556</v>
       </c>
       <c r="R13">
-        <v>225.091326693392</v>
+        <v>57.372283869116</v>
       </c>
       <c r="S13">
-        <v>0.09067465710075873</v>
+        <v>0.03058300873290154</v>
       </c>
       <c r="T13">
-        <v>0.09067465710075871</v>
+        <v>0.03058300873290154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H14">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I14">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J14">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.332722</v>
+        <v>0.8938233333333333</v>
       </c>
       <c r="N14">
-        <v>0.998166</v>
+        <v>2.68147</v>
       </c>
       <c r="O14">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="P14">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="Q14">
-        <v>1.210161042280667</v>
+        <v>3.962649253358889</v>
       </c>
       <c r="R14">
-        <v>10.891449380526</v>
+        <v>35.66384328023</v>
       </c>
       <c r="S14">
-        <v>0.004387456648894764</v>
+        <v>0.01901105476254613</v>
       </c>
       <c r="T14">
-        <v>0.004387456648894764</v>
+        <v>0.01901105476254613</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H15">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I15">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J15">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.134963</v>
       </c>
       <c r="O15">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="P15">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="Q15">
-        <v>2.588396167882555</v>
+        <v>3.155026734551889</v>
       </c>
       <c r="R15">
-        <v>23.295565510943</v>
+        <v>28.395240610967</v>
       </c>
       <c r="S15">
-        <v>0.009384268357662264</v>
+        <v>0.01513643580163484</v>
       </c>
       <c r="T15">
-        <v>0.009384268357662264</v>
+        <v>0.01513643580163483</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H16">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I16">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J16">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.600566</v>
+        <v>1.431390666666666</v>
       </c>
       <c r="N16">
-        <v>4.801698</v>
+        <v>4.294172</v>
       </c>
       <c r="O16">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="P16">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="Q16">
-        <v>5.821504495641999</v>
+        <v>6.345883962749777</v>
       </c>
       <c r="R16">
-        <v>52.393540460778</v>
+        <v>57.11295566474799</v>
       </c>
       <c r="S16">
-        <v>0.02110595012862058</v>
+        <v>0.03044477061156463</v>
       </c>
       <c r="T16">
-        <v>0.02110595012862058</v>
+        <v>0.03044477061156463</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H17">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I17">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J17">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7372710000000001</v>
+        <v>0.2887516666666667</v>
       </c>
       <c r="N17">
-        <v>2.211813</v>
+        <v>0.866255</v>
       </c>
       <c r="O17">
-        <v>0.07759238264642075</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="P17">
-        <v>0.07759238264642074</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="Q17">
-        <v>2.681567920977</v>
+        <v>1.280142880199445</v>
       </c>
       <c r="R17">
-        <v>24.134111288793</v>
+        <v>11.521285921795</v>
       </c>
       <c r="S17">
-        <v>0.009722063918187833</v>
+        <v>0.00614156460573096</v>
       </c>
       <c r="T17">
-        <v>0.009722063918187831</v>
+        <v>0.006141564605730958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H18">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I18">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J18">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.984489</v>
+        <v>2.397868333333333</v>
       </c>
       <c r="N18">
-        <v>5.953467000000001</v>
+        <v>7.193605</v>
       </c>
       <c r="O18">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="P18">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="Q18">
-        <v>7.217891442809667</v>
+        <v>10.63063673366056</v>
       </c>
       <c r="R18">
-        <v>64.961022985287</v>
+        <v>95.67573060294499</v>
       </c>
       <c r="S18">
-        <v>0.02616857153331767</v>
+        <v>0.05100113691188998</v>
       </c>
       <c r="T18">
-        <v>0.02616857153331767</v>
+        <v>0.05100113691188998</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H19">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I19">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J19">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.135145333333333</v>
+        <v>1.053984333333333</v>
       </c>
       <c r="N19">
-        <v>12.405436</v>
+        <v>3.161953</v>
       </c>
       <c r="O19">
-        <v>0.4351938147608695</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="P19">
-        <v>0.4351938147608694</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="Q19">
-        <v>15.04015901133289</v>
+        <v>4.672702172541889</v>
       </c>
       <c r="R19">
-        <v>135.361431101996</v>
+        <v>42.054319552877</v>
       </c>
       <c r="S19">
-        <v>0.05452831759510789</v>
+        <v>0.02241757753754359</v>
       </c>
       <c r="T19">
-        <v>0.05452831759510788</v>
+        <v>0.02241757753754359</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H20">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I20">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J20">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.332722</v>
+        <v>0.8938233333333333</v>
       </c>
       <c r="N20">
-        <v>0.998166</v>
+        <v>2.68147</v>
       </c>
       <c r="O20">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="P20">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="Q20">
-        <v>1.910270682016667</v>
+        <v>3.224221277701111</v>
       </c>
       <c r="R20">
-        <v>17.19243613815</v>
+        <v>29.01799149931</v>
       </c>
       <c r="S20">
-        <v>0.0069257144397968</v>
+        <v>0.01546840089997509</v>
       </c>
       <c r="T20">
-        <v>0.0069257144397968</v>
+        <v>0.01546840089997509</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H21">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I21">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J21">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.134963</v>
       </c>
       <c r="O21">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="P21">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="Q21">
-        <v>4.085850676230556</v>
+        <v>2.567096828122111</v>
       </c>
       <c r="R21">
-        <v>36.772656086075</v>
+        <v>23.103871453099</v>
       </c>
       <c r="S21">
-        <v>0.01481331169117351</v>
+        <v>0.01231580572992184</v>
       </c>
       <c r="T21">
-        <v>0.01481331169117351</v>
+        <v>0.01231580572992184</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H22">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I22">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J22">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.600566</v>
+        <v>1.431390666666666</v>
       </c>
       <c r="N22">
-        <v>4.801698</v>
+        <v>4.294172</v>
       </c>
       <c r="O22">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="P22">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="Q22">
-        <v>9.18939626605</v>
+        <v>5.163347243306221</v>
       </c>
       <c r="R22">
-        <v>82.70456639445001</v>
+        <v>46.47012518975599</v>
       </c>
       <c r="S22">
-        <v>0.03331629125230013</v>
+        <v>0.02477147759603793</v>
       </c>
       <c r="T22">
-        <v>0.03331629125230014</v>
+        <v>0.02477147759603793</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H23">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I23">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J23">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7372710000000001</v>
+        <v>0.2887516666666667</v>
       </c>
       <c r="N23">
-        <v>2.211813</v>
+        <v>0.866255</v>
       </c>
       <c r="O23">
-        <v>0.07759238264642075</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="P23">
-        <v>0.07759238264642074</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="Q23">
-        <v>4.232924711925001</v>
+        <v>1.041592038290555</v>
       </c>
       <c r="R23">
-        <v>38.096322407325</v>
+        <v>9.374328344614998</v>
       </c>
       <c r="S23">
-        <v>0.01534653076966184</v>
+        <v>0.0049971021945455</v>
       </c>
       <c r="T23">
-        <v>0.01534653076966184</v>
+        <v>0.004997102194545499</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H24">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I24">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J24">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.984489</v>
+        <v>2.397868333333333</v>
       </c>
       <c r="N24">
-        <v>5.953467000000001</v>
+        <v>7.193605</v>
       </c>
       <c r="O24">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="P24">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="Q24">
-        <v>11.39362938274167</v>
+        <v>8.649649000129443</v>
       </c>
       <c r="R24">
-        <v>102.542664444675</v>
+        <v>77.84684100116499</v>
       </c>
       <c r="S24">
-        <v>0.04130777082043843</v>
+        <v>0.04149722579632266</v>
       </c>
       <c r="T24">
-        <v>0.04130777082043843</v>
+        <v>0.04149722579632265</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H25">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I25">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J25">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.135145333333333</v>
+        <v>1.053984333333333</v>
       </c>
       <c r="N25">
-        <v>12.405436</v>
+        <v>3.161953</v>
       </c>
       <c r="O25">
-        <v>0.4351938147608695</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="P25">
-        <v>0.4351938147608694</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="Q25">
-        <v>23.74128219998889</v>
+        <v>3.801957934152111</v>
       </c>
       <c r="R25">
-        <v>213.6715397999</v>
+        <v>34.21762140736899</v>
       </c>
       <c r="S25">
-        <v>0.08607436762740373</v>
+        <v>0.01824012822477184</v>
       </c>
       <c r="T25">
-        <v>0.08607436762740371</v>
+        <v>0.01824012822477184</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H26">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I26">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J26">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.332722</v>
+        <v>0.8938233333333333</v>
       </c>
       <c r="N26">
-        <v>0.998166</v>
+        <v>2.68147</v>
       </c>
       <c r="O26">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="P26">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="Q26">
-        <v>1.827942172151334</v>
+        <v>6.232751961247778</v>
       </c>
       <c r="R26">
-        <v>16.451479549362</v>
+        <v>56.09476765123001</v>
       </c>
       <c r="S26">
-        <v>0.006627231217000672</v>
+        <v>0.029902012840579</v>
       </c>
       <c r="T26">
-        <v>0.006627231217000672</v>
+        <v>0.029902012840579</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H27">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I27">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J27">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.134963</v>
       </c>
       <c r="O27">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="P27">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="Q27">
-        <v>3.909759402426778</v>
+        <v>4.962462688540778</v>
       </c>
       <c r="R27">
-        <v>35.187834621841</v>
+        <v>44.662164196867</v>
       </c>
       <c r="S27">
-        <v>0.01417489018934867</v>
+        <v>0.02380772152593953</v>
       </c>
       <c r="T27">
-        <v>0.01417489018934867</v>
+        <v>0.02380772152593952</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H28">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I28">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J28">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.600566</v>
+        <v>1.431390666666666</v>
       </c>
       <c r="N28">
-        <v>4.801698</v>
+        <v>4.294172</v>
       </c>
       <c r="O28">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="P28">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="Q28">
-        <v>8.793353282053999</v>
+        <v>9.981282264927554</v>
       </c>
       <c r="R28">
-        <v>79.140179538486</v>
+        <v>89.831540384348</v>
       </c>
       <c r="S28">
-        <v>0.03188043159174896</v>
+        <v>0.04788581870528284</v>
       </c>
       <c r="T28">
-        <v>0.03188043159174896</v>
+        <v>0.04788581870528284</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H29">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I29">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J29">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7372710000000001</v>
+        <v>0.2887516666666667</v>
       </c>
       <c r="N29">
-        <v>2.211813</v>
+        <v>0.866255</v>
       </c>
       <c r="O29">
-        <v>0.07759238264642075</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="P29">
-        <v>0.07759238264642074</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="Q29">
-        <v>4.050494867199001</v>
+        <v>2.013504738143889</v>
       </c>
       <c r="R29">
-        <v>36.454453804791</v>
+        <v>18.121542643295</v>
       </c>
       <c r="S29">
-        <v>0.01468512868577763</v>
+        <v>0.009659913455386696</v>
       </c>
       <c r="T29">
-        <v>0.01468512868577762</v>
+        <v>0.009659913455386695</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H30">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I30">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J30">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.984489</v>
+        <v>2.397868333333333</v>
       </c>
       <c r="N30">
-        <v>5.953467000000001</v>
+        <v>7.193605</v>
       </c>
       <c r="O30">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="P30">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="Q30">
-        <v>10.90258874757433</v>
+        <v>16.72066279771611</v>
       </c>
       <c r="R30">
-        <v>98.12329872816902</v>
+        <v>150.485965179445</v>
       </c>
       <c r="S30">
-        <v>0.03952749577904211</v>
+        <v>0.08021841343742547</v>
       </c>
       <c r="T30">
-        <v>0.03952749577904211</v>
+        <v>0.08021841343742546</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H31">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I31">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J31">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.135145333333333</v>
+        <v>1.053984333333333</v>
       </c>
       <c r="N31">
-        <v>12.405436</v>
+        <v>3.161953</v>
       </c>
       <c r="O31">
-        <v>0.4351938147608695</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="P31">
-        <v>0.4351938147608694</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="Q31">
-        <v>22.71808459547244</v>
+        <v>7.349576449530779</v>
       </c>
       <c r="R31">
-        <v>204.462761359252</v>
+        <v>66.14618804577701</v>
       </c>
       <c r="S31">
-        <v>0.08236474967059983</v>
+        <v>0.03526004736480635</v>
       </c>
       <c r="T31">
-        <v>0.08236474967059981</v>
+        <v>0.03526004736480635</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H32">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I32">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J32">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.332722</v>
+        <v>0.8938233333333333</v>
       </c>
       <c r="N32">
-        <v>0.998166</v>
+        <v>2.68147</v>
       </c>
       <c r="O32">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="P32">
-        <v>0.03501655800768293</v>
+        <v>0.1318815106004608</v>
       </c>
       <c r="Q32">
-        <v>1.319604953350667</v>
+        <v>4.158615252134444</v>
       </c>
       <c r="R32">
-        <v>11.876444580156</v>
+        <v>37.42753726921</v>
       </c>
       <c r="S32">
-        <v>0.004784247157371363</v>
+        <v>0.01995121375621967</v>
       </c>
       <c r="T32">
-        <v>0.004784247157371363</v>
+        <v>0.01995121375621968</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H33">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I33">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J33">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.134963</v>
       </c>
       <c r="O33">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="P33">
-        <v>0.07489641576026108</v>
+        <v>0.1050029071800511</v>
       </c>
       <c r="Q33">
-        <v>2.822484186017555</v>
+        <v>3.311053151645444</v>
       </c>
       <c r="R33">
-        <v>25.402357674158</v>
+        <v>29.799478364809</v>
       </c>
       <c r="S33">
-        <v>0.0102329579086475</v>
+        <v>0.01588498218313836</v>
       </c>
       <c r="T33">
-        <v>0.0102329579086475</v>
+        <v>0.01588498218313836</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H34">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I34">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J34">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.600566</v>
+        <v>1.431390666666666</v>
       </c>
       <c r="N34">
-        <v>4.801698</v>
+        <v>4.294172</v>
       </c>
       <c r="O34">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="P34">
-        <v>0.1684478699458558</v>
+        <v>0.2111982942707552</v>
       </c>
       <c r="Q34">
-        <v>6.347986672852</v>
+        <v>6.659708732332888</v>
       </c>
       <c r="R34">
-        <v>57.131880055668</v>
+        <v>59.937378590996</v>
       </c>
       <c r="S34">
-        <v>0.02301471900170489</v>
+        <v>0.0319503643441744</v>
       </c>
       <c r="T34">
-        <v>0.02301471900170489</v>
+        <v>0.03195036434417441</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H35">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I35">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J35">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7372710000000001</v>
+        <v>0.2887516666666667</v>
       </c>
       <c r="N35">
-        <v>2.211813</v>
+        <v>0.866255</v>
       </c>
       <c r="O35">
-        <v>0.07759238264642075</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="P35">
-        <v>0.07759238264642074</v>
+        <v>0.04260462282449633</v>
       </c>
       <c r="Q35">
-        <v>2.924082157362</v>
+        <v>1.343450143107222</v>
       </c>
       <c r="R35">
-        <v>26.316739416258</v>
+        <v>12.091051287965</v>
       </c>
       <c r="S35">
-        <v>0.010601302847309</v>
+        <v>0.00644528511316333</v>
       </c>
       <c r="T35">
-        <v>0.01060130284730899</v>
+        <v>0.00644528511316333</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H36">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I36">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J36">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.984489</v>
+        <v>2.397868333333333</v>
       </c>
       <c r="N36">
-        <v>5.953467000000001</v>
+        <v>7.193605</v>
       </c>
       <c r="O36">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="P36">
-        <v>0.20885295887891</v>
+        <v>0.353799779249079</v>
       </c>
       <c r="Q36">
-        <v>7.870659332024667</v>
+        <v>11.15635657711278</v>
       </c>
       <c r="R36">
-        <v>70.83593398822201</v>
+        <v>100.407209194015</v>
       </c>
       <c r="S36">
-        <v>0.02853519111175318</v>
+        <v>0.05352331036066434</v>
       </c>
       <c r="T36">
-        <v>0.02853519111175318</v>
+        <v>0.05352331036066434</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H37">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I37">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J37">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.135145333333333</v>
+        <v>1.053984333333333</v>
       </c>
       <c r="N37">
-        <v>12.405436</v>
+        <v>3.161953</v>
       </c>
       <c r="O37">
-        <v>0.4351938147608695</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="P37">
-        <v>0.4351938147608694</v>
+        <v>0.1555128858751576</v>
       </c>
       <c r="Q37">
-        <v>16.40035304155289</v>
+        <v>4.903782616375445</v>
       </c>
       <c r="R37">
-        <v>147.603177373976</v>
+        <v>44.134043547379</v>
       </c>
       <c r="S37">
-        <v>0.05945972104735323</v>
+        <v>0.0235262002521453</v>
       </c>
       <c r="T37">
-        <v>0.05945972104735322</v>
+        <v>0.02352620025214531</v>
       </c>
     </row>
   </sheetData>
